--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id182363_prognose-zu-marktanteilen-von-smartphone-betriebssystemen-2019.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id182363_prognose-zu-marktanteilen-von-smartphone-betriebssystemen-2019.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\Quellen und Vorlagen\Excell-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41860" yWindow="160" windowWidth="33100" windowHeight="20500"/>
+    <workbookView xWindow="41865" yWindow="165" windowWidth="33105" windowHeight="20505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -229,81 +229,16 @@
     <cellStyle name="Currency [0]" xfId="3"/>
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,8 +263,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0792290026246719"/>
-          <c:y val="0.0"/>
+          <c:x val="7.9229002624671904E-2"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -494,7 +429,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,11 +445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="-2141989040"/>
-        <c:axId val="2133310816"/>
+        <c:axId val="314979216"/>
+        <c:axId val="314978432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141989040"/>
+        <c:axId val="314979216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +487,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133310816"/>
+        <c:crossAx val="314978432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -560,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133310816"/>
+        <c:axId val="314978432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141989040"/>
+        <c:crossAx val="314979216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -679,6 +614,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6835198555922495E-2"/>
+                  <c:y val="-1.7545687663799966E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2150850953953552E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -696,10 +673,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -765,7 +739,7 @@
                 <c:formatCode>#,##0.##</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>81.1</c:v>
+                  <c:v>81.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.6</c:v>
@@ -805,6 +779,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6835198555922495E-2"/>
+                  <c:y val="-1.7545687663799966E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2150850953953552E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -822,10 +838,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -891,7 +904,7 @@
                 <c:formatCode>#,##0.##</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>81.1</c:v>
+                  <c:v>81.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.2</c:v>
@@ -917,11 +930,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2101521344"/>
-        <c:axId val="-2119821280"/>
+        <c:axId val="314988624"/>
+        <c:axId val="314987056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2101521344"/>
+        <c:axId val="314988624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,10 +964,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -964,7 +974,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119821280"/>
+        <c:crossAx val="314987056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,10 +982,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119821280"/>
+        <c:axId val="314987056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1011,10 +1021,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1024,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101521344"/>
+        <c:crossAx val="314988624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1057,10 +1064,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1081,10 +1085,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1103,7 +1104,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2645,37 +2646,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2747,12 +2748,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2798,30 +2799,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2877,7 +2878,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id182363_prognose-zu-marktanteilen-von-smartphone-betriebssystemen-2019.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id182363_prognose-zu-marktanteilen-von-smartphone-betriebssystemen-2019.xlsx
@@ -445,11 +445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="314979216"/>
-        <c:axId val="314978432"/>
+        <c:axId val="158501752"/>
+        <c:axId val="158499008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314979216"/>
+        <c:axId val="158501752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +487,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314978432"/>
+        <c:crossAx val="158499008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314978432"/>
+        <c:axId val="158499008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314979216"/>
+        <c:crossAx val="158501752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -618,10 +618,37 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6835198555922495E-2"/>
-                  <c:y val="-1.7545687663799966E-17"/>
+                  <c:x val="-9.6189486431933705E-3"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -656,7 +683,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -783,8 +810,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6835198555922495E-2"/>
-                  <c:y val="-1.7545687663799966E-17"/>
+                  <c:x val="4.8081485105365271E-3"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -821,7 +848,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -930,11 +957,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314988624"/>
-        <c:axId val="314987056"/>
+        <c:axId val="158498224"/>
+        <c:axId val="158495088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314988624"/>
+        <c:axId val="158498224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +1001,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314987056"/>
+        <c:crossAx val="158495088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314987056"/>
+        <c:axId val="158495088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1031,7 +1058,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314988624"/>
+        <c:crossAx val="158498224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2799,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="132" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +2905,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="95" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="95" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>